--- a/app/data/plan/plan_2020-11-16.xlsx
+++ b/app/data/plan/plan_2020-11-16.xlsx
@@ -49733,7 +49733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49792,7 +49792,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Для пиццы</t>
+          <t>Фиор ди Латте</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -49802,15 +49802,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
+          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D2">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C2,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C2,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E2">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C2,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C2,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F2">
@@ -49819,11 +49819,11 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.7% варка</t>
+          <t>3.3% варка</t>
         </is>
       </c>
       <c r="L2">
-        <f>D2</f>
+        <f>(D2) / L7</f>
         <v/>
       </c>
       <c r="M2">
@@ -49837,27 +49837,22 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fine Life</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
+          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
         </is>
       </c>
       <c r="D3">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C3,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C3,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E3">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C3,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C3,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F3">
@@ -49866,11 +49861,11 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.7% варка</t>
+          <t>3.3% варка</t>
         </is>
       </c>
       <c r="L3">
-        <f>D3 + D4 + D5 + D6 + D7</f>
+        <f>(D3) / L7</f>
         <v/>
       </c>
       <c r="M3">
@@ -49879,27 +49874,22 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Моцарелла "Pretto", 45%, 1,2 кг, в/у</t>
+          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D4">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C4,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C4,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E4">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C4,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C4,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F4">
@@ -49908,11 +49898,11 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2.7% варка</t>
+          <t>3.6% варка</t>
         </is>
       </c>
       <c r="L4">
-        <f>D8 + D9 + D10 + D11 + D12 + D13</f>
+        <f>(D4 + D5) / L7</f>
         <v/>
       </c>
       <c r="M4">
@@ -49921,122 +49911,115 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
+          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
         </is>
       </c>
       <c r="D5">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C5,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C5,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E5">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C5,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C5,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F5">
         <f>D5</f>
         <v/>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3.3% варка</t>
+        </is>
+      </c>
+      <c r="L5">
+        <f>(D6 + D7 + D8 + D9 + D10) / L7</f>
+        <v/>
+      </c>
+      <c r="M5">
+        <f>ROUND(L5)</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Фермерская коллекция</t>
+          <t>Pretto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D6">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C6,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C6,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E6">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C6,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C6,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F6">
         <f>D6</f>
         <v/>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>850</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Metro Chef</t>
+          <t>Pretto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D7">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C7,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C7,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E7">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C7,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C7,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F7">
         <f>D7</f>
         <v/>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Ваш выбор</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
+          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="D8">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C8,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C8,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E8">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C8,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C8,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F8">
@@ -50045,27 +50028,22 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Красная птица</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
+          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D9">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C9,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C9,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E9">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C9,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C9,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F9">
@@ -50074,27 +50052,22 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ВкусВилл</t>
+          <t>Fine Life</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D10">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C10,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C10,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E10">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C10,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C10,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F10">
@@ -50102,199 +50075,105 @@
         <v/>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D11">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C11,'файл остатки'.$A$5:$DK$5,0))</f>
+    <row r="11"/>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Моцарелла</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Бонджорно</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D14">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C14,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E11">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C11,'файл остатки'.$A$5:$DK$5,0))</f>
+      <c r="E14">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C14,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F11">
-        <f>D11</f>
+      <c r="F14">
+        <f>D14</f>
         <v/>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2.7% варка</t>
+        </is>
+      </c>
+      <c r="L14">
+        <f>(D14 + D15) / L16</f>
+        <v/>
+      </c>
+      <c r="M14">
+        <f>ROUND(L14)</f>
+        <v/>
+      </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
-        </is>
-      </c>
-      <c r="D12">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C12,'файл остатки'.$A$5:$DK$5,0))</f>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Эсперсон</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Моцарелла (палочки), 45%, кг, пл/л</t>
+        </is>
+      </c>
+      <c r="D15">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C15,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E12">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C12,'файл остатки'.$A$5:$DK$5,0))</f>
+      <c r="E15">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C15,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F12">
-        <f>D12</f>
+      <c r="F15">
+        <f>D15</f>
         <v/>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
-        </is>
-      </c>
-      <c r="D13">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C13,'файл остатки'.$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C13,'файл остатки'.$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F13">
-        <f>D13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Фиор ди Латте</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
-        </is>
-      </c>
-      <c r="D17">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C17,'файл остатки'.$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E17">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C17,'файл остатки'.$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F17">
-        <f>D17</f>
-        <v/>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>3.3% варка</t>
-        </is>
-      </c>
-      <c r="L17">
-        <f>D17</f>
-        <v/>
-      </c>
-      <c r="M17">
-        <f>ROUND(L17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Фиор ди Латте</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D18">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C18,'файл остатки'.$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E18">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C18,'файл остатки'.$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F18">
-        <f>D18</f>
-        <v/>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>3.3% варка</t>
-        </is>
-      </c>
-      <c r="L18">
-        <f>D18 + D19 + D20 + D21 + D22</f>
-        <v/>
-      </c>
-      <c r="M18">
-        <f>ROUND(L18)</f>
-        <v/>
+    <row r="16">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>850</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Фиор ди Латте</t>
+          <t>Сулугуни</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+          <t>Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
         </is>
       </c>
       <c r="D19">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C19,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C19,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E19">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C19,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C19,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F19">
@@ -50303,11 +50182,11 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3.3% варка</t>
+          <t>2.7% варка</t>
         </is>
       </c>
       <c r="L19">
-        <f>D23</f>
+        <f>(D19) / L22</f>
         <v/>
       </c>
       <c r="M19">
@@ -50316,27 +50195,22 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Фиор ди Латте</t>
-        </is>
-      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ваш выбор</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+          <t>Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
         </is>
       </c>
       <c r="D20">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C20,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C20,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E20">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C20,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C20,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F20">
@@ -50345,11 +50219,11 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>3.6% варка</t>
+          <t>2.7% варка</t>
         </is>
       </c>
       <c r="L20">
-        <f>D24 + D25</f>
+        <f>(D20 + D21 + D22 + D23 + D24 + D25 + D26) / L22</f>
         <v/>
       </c>
       <c r="M20">
@@ -50358,27 +50232,22 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Фиор ди Латте</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Красная птица</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
         </is>
       </c>
       <c r="D21">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C21,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C21,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E21">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C21,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C21,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F21">
@@ -50387,27 +50256,22 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Фиор ди Латте</t>
-        </is>
-      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fine Life</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+          <t>Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
         </is>
       </c>
       <c r="D22">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C22,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C22,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E22">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C22,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C22,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F22">
@@ -50420,31 +50284,26 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Фиор ди Латте</t>
-        </is>
-      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
         </is>
       </c>
       <c r="D23">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C23,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C23,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E23">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C23,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C23,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F23">
@@ -50453,27 +50312,22 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Фиор ди Латте</t>
-        </is>
-      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
         </is>
       </c>
       <c r="D24">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C24,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C24,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E24">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C24,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C24,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F24">
@@ -50482,27 +50336,22 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Фиор ди Латте</t>
-        </is>
-      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
+          <t>Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
         </is>
       </c>
       <c r="D25">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C25,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C25,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E25">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C25,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C25,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F25">
@@ -50510,284 +50359,354 @@
         <v/>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Фиор Ди Латте</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Orecchio Oro</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D29">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C29,'файл остатки'.$A$5:$DK$5,0))</f>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
+        </is>
+      </c>
+      <c r="D26">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C26,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E29">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C29,'файл остатки'.$A$5:$DK$5,0))</f>
+      <c r="E26">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C26,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F29">
-        <f>D29</f>
+      <c r="F26">
+        <f>D26</f>
         <v/>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>3.3% варка</t>
-        </is>
-      </c>
-      <c r="L29">
-        <f>D29</f>
+    </row>
+    <row r="27"/>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Качокавалло</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
+        </is>
+      </c>
+      <c r="D30">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C30,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="M29">
-        <f>ROUND(L29)</f>
+      <c r="E30">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C30,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F30">
+        <f>D30</f>
+        <v/>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>3.6% варка</t>
+        </is>
+      </c>
+      <c r="L30">
+        <f>(D30) / L33</f>
+        <v/>
+      </c>
+      <c r="M30">
+        <f>ROUND(L30)</f>
         <v/>
       </c>
     </row>
     <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D31">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C31,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E31">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C31,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F31">
+        <f>D31</f>
+        <v/>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1000</v>
+          <t>3.6% варка</t>
+        </is>
+      </c>
+      <c r="L31">
+        <f>(D31 + D32) / L33</f>
+        <v/>
+      </c>
+      <c r="M31">
+        <f>ROUND(L31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Качокавалло "Unagrande", 45%, кг</t>
+        </is>
+      </c>
+      <c r="D32">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C32,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E32">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C32,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F32">
+        <f>D32</f>
+        <v/>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Качокавалло</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D33">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C33,'файл остатки'.$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E33">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C33,'файл остатки'.$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F33">
-        <f>D33</f>
-        <v/>
-      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>3.6% варка</t>
-        </is>
-      </c>
-      <c r="L33">
-        <f>D33 + D34</f>
-        <v/>
-      </c>
-      <c r="M33">
-        <f>ROUND(L33)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Качокавалло</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande", 45%, кг</t>
-        </is>
-      </c>
-      <c r="D34">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C34,'файл остатки'.$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E34">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C34,'файл остатки'.$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F34">
-        <f>D34</f>
-        <v/>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>3.6% варка</t>
-        </is>
-      </c>
-      <c r="L34">
-        <f>D35</f>
-        <v/>
-      </c>
-      <c r="M34">
-        <f>ROUND(L34)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Качокавалло</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
-        </is>
-      </c>
-      <c r="D35">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C35,'файл остатки'.$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E35">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C35,'файл остатки'.$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F35">
-        <f>D35</f>
-        <v/>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>850</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Фиор Ди Латте</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Orecchio Oro</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D36">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C36,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E36">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C36,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F36">
+        <f>D36</f>
+        <v/>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>3.3% варка</t>
+        </is>
+      </c>
+      <c r="L36">
+        <f>(D36) / L38</f>
+        <v/>
+      </c>
+      <c r="M36">
+        <f>ROUND(L36)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37"/>
+    <row r="38">
+      <c r="J38" t="inlineStr">
+        <is>
           <t>Объем варки</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Моцарелла</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Бонджорно</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D39">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C39,'файл остатки'.$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E39">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C39,'файл остатки'.$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F39">
-        <f>D39</f>
-        <v/>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>2.7% варка</t>
-        </is>
-      </c>
-      <c r="L39">
-        <f>D39 + D40</f>
-        <v/>
-      </c>
-      <c r="M39">
-        <f>ROUND(L39)</f>
-        <v/>
+      <c r="L38" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Моцарелла</t>
+          <t>Для пиццы</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Эсперсон</t>
+          <t>Fine Life</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Моцарелла (палочки), 45%, кг, пл/л</t>
+          <t>Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
         </is>
       </c>
       <c r="D40">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C40,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C40,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E40">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C40,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C40,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F40">
         <f>D40</f>
         <v/>
       </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2.7% варка</t>
+        </is>
+      </c>
+      <c r="L40">
+        <f>(D40 + D41 + D42 + D43 + D44) / L44</f>
+        <v/>
+      </c>
+      <c r="M40">
+        <f>ROUND(L40)</f>
+        <v/>
+      </c>
     </row>
     <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Моцарелла "Pretto", 45%, 1,2 кг, в/у</t>
+        </is>
+      </c>
+      <c r="D41">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C41,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E41">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C41,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F41">
+        <f>D41</f>
+        <v/>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>850</v>
+          <t>2.7% варка</t>
+        </is>
+      </c>
+      <c r="L41">
+        <f>(D45 + D46 + D47 + D48 + D49 + D50) / L44</f>
+        <v/>
+      </c>
+      <c r="M41">
+        <f>ROUND(L41)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
+        </is>
+      </c>
+      <c r="D42">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C42,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E42">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C42,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F42">
+        <f>D42</f>
+        <v/>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2.7% варка</t>
+        </is>
+      </c>
+      <c r="L42">
+        <f>(D51) / L44</f>
+        <v/>
+      </c>
+      <c r="M42">
+        <f>ROUND(L42)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Фермерская коллекция</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D43">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C43,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E43">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C43,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F43">
+        <f>D43</f>
+        <v/>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ВкусВилл</t>
+          <t>Metro Chef</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
+          <t>Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
         </is>
       </c>
       <c r="D44">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C44,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C44,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E44">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C44,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C44,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F44">
@@ -50796,82 +50715,54 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2.7% варка</t>
-        </is>
-      </c>
-      <c r="L44">
-        <f>D44 + D45 + D46 + D47 + D48 + D49 + D50</f>
-        <v/>
-      </c>
-      <c r="M44">
-        <f>ROUND(L44)</f>
-        <v/>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>850</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
+          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
         </is>
       </c>
       <c r="D45">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C45,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C45,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E45">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C45,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C45,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F45">
         <f>D45</f>
         <v/>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>2.7% варка</t>
-        </is>
-      </c>
-      <c r="L45">
-        <f>D51</f>
-        <v/>
-      </c>
-      <c r="M45">
-        <f>ROUND(L45)</f>
-        <v/>
-      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
+          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
         </is>
       </c>
       <c r="D46">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C46,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C46,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E46">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C46,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C46,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F46">
@@ -50880,64 +50771,46 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
+          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
         </is>
       </c>
       <c r="D47">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C47,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C47,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E47">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C47,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C47,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F47">
         <f>D47</f>
         <v/>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>850</v>
-      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
+          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
         </is>
       </c>
       <c r="D48">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C48,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C48,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E48">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C48,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C48,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F48">
@@ -50946,27 +50819,22 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ВкусВилл</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
+          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
         </is>
       </c>
       <c r="D49">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C49,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C49,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E49">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C49,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C49,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F49">
@@ -50975,27 +50843,22 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
+          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
         </is>
       </c>
       <c r="D50">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C50,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C50,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E50">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C50,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C50,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F50">
@@ -51004,27 +50867,22 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
+          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
         </is>
       </c>
       <c r="D51">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C51,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C51,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E51">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C51,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C51,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F51">
@@ -51032,6 +50890,7 @@
         <v/>
       </c>
     </row>
+    <row r="52"/>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
@@ -51040,20 +50899,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Pretto</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
+          <t>Моцарелла Чильеджина в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D55">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C55,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C55,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E55">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C55,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C55,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F55">
@@ -51062,11 +50921,11 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>3.6% варка</t>
+          <t>3.3% варка</t>
         </is>
       </c>
       <c r="L55">
-        <f>D55</f>
+        <f>(D55 + D56 + D57 + D58 + D59) / L59</f>
         <v/>
       </c>
       <c r="M55">
@@ -51075,27 +50934,22 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Fine Life</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D56">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C56,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C56,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E56">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C56,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C56,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F56">
@@ -51104,11 +50958,11 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>3.3% варка</t>
+          <t>3.6% варка</t>
         </is>
       </c>
       <c r="L56">
-        <f>D56</f>
+        <f>(D60) / L59</f>
         <v/>
       </c>
       <c r="M56">
@@ -51117,27 +50971,22 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>Orecchio Oro</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="D57">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C57,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C57,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E57">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C57,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C57,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F57">
@@ -51150,7 +50999,7 @@
         </is>
       </c>
       <c r="L57">
-        <f>D57 + D58 + D59 + D60 + D61</f>
+        <f>(D61) / L59</f>
         <v/>
       </c>
       <c r="M57">
@@ -51159,27 +51008,22 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fine Life</t>
+          <t>Ваш выбор</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="D58">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C58,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C58,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E58">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C58,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C58,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F58">
@@ -51188,27 +51032,22 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Orecchio Oro</t>
+          <t>Красная птица</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+          <t>Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D59">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C59,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C59,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E59">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C59,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C59,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F59">
@@ -51225,27 +51064,22 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ваш выбор</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D60">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C60,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C60,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E60">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C60,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C60,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F60">
@@ -51254,27 +51088,22 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Красная птица</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D61">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$1,'файл остатки'.$A$5:$A$228,0),MATCH(C61,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C61,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="E61">
-        <f>INDEX('файл остатки'.$A$5:$DK$265,MATCH($O$2,'файл остатки'.$A$5:$A$228,0),MATCH(C61,'файл остатки'.$A$5:$DK$5,0))</f>
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C61,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
       <c r="F61">
@@ -51282,28 +51111,36 @@
         <v/>
       </c>
     </row>
+    <row r="62"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="J6:K6"/>
+  <mergeCells count="30">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A2:A11"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="A19:A27"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="J30:K30"/>
     <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="A40:A52"/>
+    <mergeCell ref="J40:K40"/>
     <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J42:K42"/>
     <mergeCell ref="J59:K59"/>
+    <mergeCell ref="A55:A62"/>
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J57:K57"/>
